--- a/lab1/Wyniki/wynik_0.xlsx
+++ b/lab1/Wyniki/wynik_0.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:L6"/>
+  <dimension ref="A1:L4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -433,34 +433,34 @@
         </is>
       </c>
       <c r="C1" t="n">
-        <v>0.4311848133386362</v>
+        <v>0.9726435472291298</v>
       </c>
       <c r="D1" t="n">
-        <v>1.758109439783784</v>
+        <v>0.1819171931360578</v>
       </c>
       <c r="E1" t="n">
-        <v>0.3029426733424394</v>
+        <v>2.731781509763596</v>
       </c>
       <c r="F1" t="n">
-        <v>0.1782931833519685</v>
+        <v>1.65003529692709</v>
       </c>
       <c r="G1" t="n">
-        <v>0.7108359712890517</v>
+        <v>3.193286942158649</v>
       </c>
       <c r="H1" t="n">
-        <v>0.91372057634945</v>
+        <v>0.1041658958430229</v>
       </c>
       <c r="I1" t="n">
-        <v>1.20724238229371</v>
+        <v>0.03312155777657055</v>
       </c>
       <c r="J1" t="n">
-        <v>0.8861409665109601</v>
+        <v>2.202810946902213</v>
       </c>
       <c r="K1" t="n">
-        <v>0.8625391493902774</v>
+        <v>1.550469473614174</v>
       </c>
       <c r="L1" t="n">
-        <v>0.09879729003532156</v>
+        <v>1.607114144237154</v>
       </c>
     </row>
     <row r="2">
@@ -475,34 +475,34 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>0.6706540823675919</v>
+        <v>1.004478669640582</v>
       </c>
       <c r="D2" t="n">
-        <v>0.7523984442985838</v>
+        <v>0.1411915386003168</v>
       </c>
       <c r="E2" t="n">
-        <v>1.507362293362062</v>
+        <v>1.13560409437172</v>
       </c>
       <c r="F2" t="n">
-        <v>1.391680503292105</v>
+        <v>1.539795615676879</v>
       </c>
       <c r="G2" t="n">
-        <v>0.5916995303829278</v>
+        <v>0.8137336678398926</v>
       </c>
       <c r="H2" t="n">
-        <v>1.395662035606709</v>
+        <v>0.7559210715506026</v>
       </c>
       <c r="I2" t="n">
-        <v>1.777524859781611</v>
+        <v>0.09904051834849716</v>
       </c>
       <c r="J2" t="n">
-        <v>1.775135894425338</v>
+        <v>0.5620725923912073</v>
       </c>
       <c r="K2" t="n">
-        <v>1.959382719102333</v>
+        <v>1.535384302193382</v>
       </c>
       <c r="L2" t="n">
-        <v>1.007102684303177</v>
+        <v>0.8037871881389704</v>
       </c>
     </row>
     <row r="3">
@@ -517,171 +517,87 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>0.3228601311972417</v>
+        <v>0.6895585819130474</v>
       </c>
       <c r="D3" t="n">
-        <v>0.8345318239808399</v>
+        <v>1.200503481179209</v>
       </c>
       <c r="E3" t="n">
-        <v>1.210961670184328</v>
+        <v>0.3023904240886193</v>
       </c>
       <c r="F3" t="n">
-        <v>0.216446911815551</v>
+        <v>1.093801358166275</v>
       </c>
       <c r="G3" t="n">
-        <v>0.5189642674416597</v>
+        <v>0.125212075230694</v>
       </c>
       <c r="H3" t="n">
-        <v>0.424358012524398</v>
+        <v>0.8729398533566087</v>
       </c>
       <c r="I3" t="n">
-        <v>0.4929190555875895</v>
+        <v>1.264293298752485</v>
       </c>
       <c r="J3" t="n">
-        <v>1.066215251685301</v>
+        <v>0.9305243783128878</v>
       </c>
       <c r="K3" t="n">
-        <v>0.3018643063587054</v>
+        <v>0.6907274954770453</v>
       </c>
       <c r="L3" t="n">
-        <v>0.01962373607076273</v>
+        <v>1.335509563479743</v>
       </c>
     </row>
     <row r="4">
-      <c r="A4" t="inlineStr">
-        <is>
-          <t>Kryterium 4</t>
-        </is>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>Min</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
-        <v>0.2775923795539523</v>
-      </c>
-      <c r="D4" t="n">
-        <v>0.6293899804326017</v>
-      </c>
-      <c r="E4" t="n">
-        <v>0.3853842976761095</v>
-      </c>
-      <c r="F4" t="n">
-        <v>1.504939187404988</v>
-      </c>
-      <c r="G4" t="n">
-        <v>1.46383418681018</v>
-      </c>
-      <c r="H4" t="n">
-        <v>1.812372128053383</v>
-      </c>
-      <c r="I4" t="n">
-        <v>1.560954470141741</v>
-      </c>
-      <c r="J4" t="n">
-        <v>1.161106630445461</v>
-      </c>
-      <c r="K4" t="n">
-        <v>0.4042752364547568</v>
-      </c>
-      <c r="L4" t="n">
-        <v>1.005484762638749</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="inlineStr">
-        <is>
-          <t>Kryterium 5</t>
-        </is>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>Min</t>
-        </is>
-      </c>
-      <c r="C5" t="n">
-        <v>1.470983670004249</v>
-      </c>
-      <c r="D5" t="n">
-        <v>1.965597895242884</v>
-      </c>
-      <c r="E5" t="n">
-        <v>1.034112127030969</v>
-      </c>
-      <c r="F5" t="n">
-        <v>1.627373621735129</v>
-      </c>
-      <c r="G5" t="n">
-        <v>0.4748780547806262</v>
-      </c>
-      <c r="H5" t="n">
-        <v>1.096307943114978</v>
-      </c>
-      <c r="I5" t="n">
-        <v>0.3354743797554822</v>
-      </c>
-      <c r="J5" t="n">
-        <v>1.710687266619644</v>
-      </c>
-      <c r="K5" t="n">
-        <v>0.842132266763441</v>
-      </c>
-      <c r="L5" t="n">
-        <v>1.00783939759377</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="inlineStr"/>
-      <c r="B6" t="inlineStr"/>
-      <c r="C6" t="inlineStr">
+      <c r="A4" t="inlineStr"/>
+      <c r="B4" t="inlineStr"/>
+      <c r="C4" t="inlineStr">
         <is>
           <t>niezdominowany</t>
         </is>
       </c>
-      <c r="D6" t="inlineStr">
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>niezdominowany</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>niezdominowany</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
         <is>
           <t>zdominowany</t>
         </is>
       </c>
-      <c r="E6" t="inlineStr">
+      <c r="G4" t="inlineStr">
         <is>
           <t>niezdominowany</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>niezdominowany</t>
+        </is>
+      </c>
+      <c r="I4" t="inlineStr">
+        <is>
+          <t>niezdominowany</t>
+        </is>
+      </c>
+      <c r="J4" t="inlineStr">
+        <is>
+          <t>niezdominowany</t>
+        </is>
+      </c>
+      <c r="K4" t="inlineStr">
         <is>
           <t>zdominowany</t>
         </is>
       </c>
-      <c r="G6" t="inlineStr">
-        <is>
-          <t>niezdominowany</t>
-        </is>
-      </c>
-      <c r="H6" t="inlineStr">
+      <c r="L4" t="inlineStr">
         <is>
           <t>zdominowany</t>
-        </is>
-      </c>
-      <c r="I6" t="inlineStr">
-        <is>
-          <t>niezdominowany</t>
-        </is>
-      </c>
-      <c r="J6" t="inlineStr">
-        <is>
-          <t>zdominowany</t>
-        </is>
-      </c>
-      <c r="K6" t="inlineStr">
-        <is>
-          <t>niezdominowany</t>
-        </is>
-      </c>
-      <c r="L6" t="inlineStr">
-        <is>
-          <t>niezdominowany</t>
         </is>
       </c>
     </row>
